--- a/src/test/resources/excel/april week 1 newmenu.xlsx
+++ b/src/test/resources/excel/april week 1 newmenu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="조식" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>코스/일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,12 @@
 배추김치
 꽃맛살샐러드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04월06일 토</t>
+  </si>
+  <si>
+    <t>04월07일 일</t>
   </si>
 </sst>
 </file>
@@ -576,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,7 +601,7 @@
     <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -614,8 +620,14 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -647,7 +659,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +693,7 @@
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +712,14 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,7 +729,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,10 +778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:BB8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,7 +793,7 @@
     <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -794,8 +812,14 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -813,7 +837,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -823,7 +847,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
